--- a/0_0_Data/0_Forecast_Inputs/1_ifo_quarterly_components/ifo_BIP_Komponenten.xlsx
+++ b/0_0_Data/0_Forecast_Inputs/1_ifo_quarterly_components/ifo_BIP_Komponenten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dfbe04e23282f0d1/Desktop/ifo/Konjunkturprognose Evaluierung/ifo Forecast Evaluation Workfolder/0_0_Data/0_Forecast_Inputs/1_ifo_quarterly_components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_3DCD73CD4C4C8EBFBF0F6810532024AB2956D0E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{796E668F-20EA-4BEB-A197-687D4573B70B}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_3DCD73CD4C4C8EBFBF0F6810532024AB2956D0E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942C2950-5A5B-4A01-AC35-463DD9C0D15E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -96,7 +96,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -12759,10 +12759,10 @@
   <dimension ref="A1:BA95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="T52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="AA58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH66" sqref="AH66"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15380,7 +15380,7 @@
       <c r="AR78">
         <v>-1.4829802871953039</v>
       </c>
-      <c r="AS78">
+      <c r="AS78" s="2">
         <v>-1.253192088351895</v>
       </c>
       <c r="AT78">
@@ -15424,7 +15424,7 @@
       <c r="AS79">
         <v>-0.8967749722241507</v>
       </c>
-      <c r="AT79">
+      <c r="AT79" s="2">
         <v>-1.2252490134152649</v>
       </c>
       <c r="AU79">
@@ -15456,7 +15456,7 @@
       <c r="AT80">
         <v>-0.81828126897316622</v>
       </c>
-      <c r="AU80">
+      <c r="AU80" s="2">
         <v>-0.16724919258589921</v>
       </c>
       <c r="AV80">
@@ -15500,7 +15500,7 @@
       <c r="AU81">
         <v>-0.51071064206867334</v>
       </c>
-      <c r="AV81">
+      <c r="AV81" s="2">
         <v>-1.3154289065158049</v>
       </c>
       <c r="AW81">
@@ -15544,7 +15544,7 @@
       <c r="AV82">
         <v>-0.41668731013159288</v>
       </c>
-      <c r="AW82">
+      <c r="AW82" s="2">
         <v>-0.6454450625183199</v>
       </c>
       <c r="AX82">
@@ -15588,7 +15588,7 @@
       <c r="AW83">
         <v>-0.18796865946428909</v>
       </c>
-      <c r="AX83">
+      <c r="AX83" s="2">
         <v>-0.36424427368714868</v>
       </c>
       <c r="AY83">
@@ -15620,7 +15620,7 @@
       <c r="AX84">
         <v>-6.4459932016731614E-2</v>
       </c>
-      <c r="AY84">
+      <c r="AY84" s="2">
         <v>-0.2250721972476839</v>
       </c>
       <c r="AZ84">
@@ -15655,7 +15655,7 @@
       <c r="AY85">
         <v>4.3079608602880633E-2</v>
       </c>
-      <c r="AZ85">
+      <c r="AZ85" s="2">
         <v>-4.9946346431113398E-3</v>
       </c>
       <c r="BA85">
@@ -15690,7 +15690,7 @@
       <c r="AZ86">
         <v>0.16758162961482981</v>
       </c>
-      <c r="BA86">
+      <c r="BA86" s="2">
         <v>-0.1440085263791531</v>
       </c>
     </row>
